--- a/service/config/file_map.xlsx
+++ b/service/config/file_map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27120" windowHeight="10485"/>
+    <workbookView windowWidth="27120" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>hbase字段名</t>
   </si>
@@ -126,6 +126,9 @@
     <t>tel</t>
   </si>
   <si>
+    <t>(0\d{2,3}-*\d{7,8}(-*\d{3,5}){0,1})|(1[35847]\d{9})</t>
+  </si>
+  <si>
     <t>(0\d{2,3}-\d{7,8}(-\d{3,5}){0,1})|(1[35847]\d{9})</t>
   </si>
   <si>
@@ -141,7 +144,7 @@
     <t>industry</t>
   </si>
   <si>
-    <t>LAGEL_PERSON</t>
+    <t>LEGAL_PERSON</t>
   </si>
   <si>
     <t>shareholder_list</t>
@@ -212,10 +215,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -241,9 +244,86 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,37 +335,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -295,14 +344,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,74 +386,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -393,19 +396,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,61 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,97 +570,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,8 +593,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,6 +644,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -626,17 +668,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,39 +687,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -692,10 +695,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,133 +707,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1200,8 +1203,8 @@
   <sheetPr/>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1211,7 +1214,7 @@
     <col min="3" max="3" width="18.375" customWidth="1"/>
     <col min="4" max="4" width="20.75" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="50.75" customWidth="1"/>
+    <col min="6" max="6" width="66.125" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
     <col min="8" max="8" width="17.625" customWidth="1"/>
     <col min="9" max="9" width="8.875" customWidth="1"/>
@@ -1409,12 +1412,12 @@
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
@@ -1423,14 +1426,14 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
         <v>33</v>
@@ -1438,7 +1441,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
@@ -1447,16 +1450,16 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
         <v>33</v>
@@ -1464,7 +1467,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -1473,28 +1476,28 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="I11" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>24</v>
@@ -1503,28 +1506,28 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s">
         <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>24</v>
@@ -1533,14 +1536,14 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
         <v>33</v>
@@ -1548,7 +1551,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -1557,14 +1560,14 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2"/>
       <c r="G14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
         <v>33</v>
@@ -1572,7 +1575,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>24</v>
@@ -1581,14 +1584,14 @@
         <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
         <v>33</v>
@@ -1596,7 +1599,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
@@ -1605,14 +1608,14 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I16" t="s">
         <v>33</v>
